--- a/BackTest/2019-10-28 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-28 BackTest LAMB.xlsx
@@ -4861,266 +4861,244 @@
         <v>38.61999999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>791.5078999999999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>38.54499999999999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1486.3854</v>
+      </c>
+      <c r="G130" t="n">
+        <v>38.45999999999999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>43484.496</v>
+      </c>
+      <c r="G131" t="n">
+        <v>38.385</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>30177.0478</v>
+      </c>
+      <c r="G132" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K132" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>565.0026</v>
+      </c>
+      <c r="G133" t="n">
+        <v>38.235</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K133" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D134" t="n">
         <v>37.9</v>
       </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="E134" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11709.1888</v>
+      </c>
+      <c r="G134" t="n">
+        <v>38.16</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K134" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="C129" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D129" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>791.5078999999999</v>
-      </c>
-      <c r="G129" t="n">
-        <v>38.54499999999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1486.3854</v>
-      </c>
-      <c r="G130" t="n">
-        <v>38.45999999999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C131" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D131" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E131" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F131" t="n">
-        <v>43484.496</v>
-      </c>
-      <c r="G131" t="n">
-        <v>38.385</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C132" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D132" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F132" t="n">
-        <v>30177.0478</v>
-      </c>
-      <c r="G132" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>565.0026</v>
-      </c>
-      <c r="G133" t="n">
-        <v>38.235</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="E134" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>11709.1888</v>
-      </c>
-      <c r="G134" t="n">
-        <v>38.16</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5154,9 +5132,11 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+        <v>37.8</v>
+      </c>
+      <c r="K135" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5197,7 +5177,9 @@
       <c r="J136" t="n">
         <v>38.2</v>
       </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5238,7 +5220,9 @@
       <c r="J137" t="n">
         <v>38.2</v>
       </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5277,9 +5261,11 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="K138" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5312,15 +5298,15 @@
         <v>38.00000000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5353,15 +5339,15 @@
         <v>38.00000000000001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5394,15 +5380,15 @@
         <v>37.99500000000001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5435,15 +5421,15 @@
         <v>38.00000000000001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5476,15 +5462,15 @@
         <v>38.02000000000002</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,15 +5503,15 @@
         <v>38.05000000000002</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5558,15 +5544,15 @@
         <v>38.08500000000002</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,7 +5591,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5644,7 +5632,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5683,7 +5673,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,15 +5708,15 @@
         <v>38.23000000000002</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5757,15 +5749,15 @@
         <v>38.27500000000002</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5798,15 +5790,15 @@
         <v>38.33500000000002</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5845,7 +5837,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5884,7 +5878,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,7 +5919,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5962,7 +5960,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6001,7 +6001,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6037,17 +6039,19 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>37.6</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>1</v>
+        <v>1.053510638297872</v>
       </c>
     </row>
     <row r="158">
@@ -6080,11 +6084,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6119,11 +6119,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6158,11 +6154,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6197,11 +6189,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6236,11 +6224,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6271,16 +6255,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6308,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6518,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6553,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -6588,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -6623,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -6658,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -6728,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -10610,20 +10592,14 @@
         <v>38.68000000000002</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>38.2</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10651,20 +10627,14 @@
         <v>38.63500000000002</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>38.2</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10692,20 +10662,14 @@
         <v>38.58000000000002</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>38</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10733,20 +10697,14 @@
         <v>38.55000000000002</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>38.6</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10774,20 +10732,14 @@
         <v>38.52000000000002</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>38.5</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10815,20 +10767,14 @@
         <v>38.51000000000001</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>38.5</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10856,20 +10802,14 @@
         <v>38.48500000000001</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>38.6</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10897,20 +10837,14 @@
         <v>38.48500000000001</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>38.6</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10938,20 +10872,14 @@
         <v>38.47000000000001</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>38.6</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10979,20 +10907,14 @@
         <v>38.45500000000002</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>38.6</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11020,20 +10942,14 @@
         <v>38.46000000000002</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>38.7</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11061,20 +10977,14 @@
         <v>38.47500000000002</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>38.9</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11109,11 +11019,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11148,11 +11054,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11187,11 +11089,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11226,11 +11124,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11265,11 +11159,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11304,11 +11194,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11343,11 +11229,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11382,11 +11264,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11421,11 +11299,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11460,11 +11334,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11499,11 +11369,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11538,11 +11404,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11577,11 +11439,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11616,11 +11474,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11655,11 +11509,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11694,11 +11544,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11733,11 +11579,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11772,11 +11614,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11811,11 +11649,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11850,11 +11684,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11889,11 +11719,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11928,11 +11754,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11967,11 +11789,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12006,11 +11824,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12045,11 +11859,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12084,11 +11894,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12123,11 +11929,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12162,11 +11964,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12201,11 +11999,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12240,11 +12034,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12279,11 +12069,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12318,11 +12104,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12357,11 +12139,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12396,11 +12174,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12435,11 +12209,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12474,11 +12244,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12513,11 +12279,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12545,20 +12307,14 @@
         <v>38.86499999999999</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>38.7</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12593,11 +12349,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12632,11 +12384,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12671,11 +12419,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12710,11 +12454,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12749,11 +12489,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12788,11 +12524,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12827,11 +12559,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12866,11 +12594,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12898,20 +12622,14 @@
         <v>38.59</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>38.5</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12939,20 +12657,14 @@
         <v>38.575</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>38.5</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12980,20 +12692,14 @@
         <v>38.55499999999999</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>38.3</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13021,20 +12727,14 @@
         <v>38.52499999999999</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>38.4</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13062,20 +12762,14 @@
         <v>38.50499999999999</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>38.3</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13103,20 +12797,14 @@
         <v>38.50499999999999</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>38.6</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13144,20 +12832,14 @@
         <v>38.50499999999999</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>38.5</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13185,20 +12867,14 @@
         <v>38.53499999999999</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>38.9</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13226,20 +12902,14 @@
         <v>38.52999999999999</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>38.2</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13267,20 +12937,14 @@
         <v>38.55499999999999</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>38.8</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13308,20 +12972,14 @@
         <v>38.54</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>38.2</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13349,20 +13007,14 @@
         <v>38.505</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>38</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13390,20 +13042,14 @@
         <v>38.455</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>37.9</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13431,20 +13077,14 @@
         <v>38.39999999999999</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>37.8</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13472,20 +13112,14 @@
         <v>38.36499999999999</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>38.3</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13513,20 +13147,14 @@
         <v>38.32999999999999</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>37.8</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13554,20 +13182,14 @@
         <v>38.30499999999999</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>38</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13595,20 +13217,14 @@
         <v>38.27999999999999</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>38</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13636,20 +13252,14 @@
         <v>38.25999999999999</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>38</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13677,20 +13287,14 @@
         <v>38.25499999999999</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>38.1</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13718,20 +13322,14 @@
         <v>38.23499999999999</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>38.1</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13759,20 +13357,14 @@
         <v>38.22999999999999</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>38.4</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13800,20 +13392,14 @@
         <v>38.22499999999999</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>38.2</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13841,20 +13427,14 @@
         <v>38.24999999999999</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>38.9</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13882,20 +13462,14 @@
         <v>38.27499999999999</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>38.8</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13923,20 +13497,14 @@
         <v>38.28499999999999</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>38.8</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13964,20 +13532,14 @@
         <v>38.29999999999999</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>38.8</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14005,20 +13567,14 @@
         <v>38.30499999999999</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>39</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14053,11 +13609,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14092,11 +13644,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14131,11 +13679,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14170,11 +13714,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14209,11 +13749,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14248,11 +13784,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14287,11 +13819,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14326,11 +13854,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14365,11 +13889,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14404,11 +13924,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +13959,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14482,11 +13994,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14521,11 +14029,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14560,11 +14064,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14599,11 +14099,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14638,11 +14134,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14677,11 +14169,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14716,11 +14204,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14755,11 +14239,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14794,11 +14274,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14833,11 +14309,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14344,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14911,11 +14379,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14950,11 +14414,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14989,11 +14449,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15028,11 +14484,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15067,11 +14519,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15106,11 +14554,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15145,11 +14589,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15184,11 +14624,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15223,11 +14659,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15262,11 +14694,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +14729,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15340,11 +14764,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15379,11 +14799,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15418,11 +14834,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15457,11 +14869,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15496,11 +14904,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15535,11 +14939,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15574,11 +14974,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15613,11 +15009,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15652,11 +15044,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15691,11 +15079,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15114,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15769,11 +15149,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15808,11 +15184,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15847,11 +15219,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15886,11 +15254,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15925,11 +15289,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15964,11 +15324,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16003,11 +15359,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16042,11 +15394,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16081,11 +15429,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16120,11 +15464,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +15499,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16198,11 +15534,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16237,11 +15569,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16276,11 +15604,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16315,11 +15639,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16354,11 +15674,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16393,11 +15709,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16432,11 +15744,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16471,11 +15779,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16510,11 +15814,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16549,11 +15849,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16588,11 +15884,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16627,11 +15919,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16666,11 +15954,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16701,15 +15985,11 @@
         <v>0</v>
       </c>
       <c r="I441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16744,11 +16024,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16783,11 +16059,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16822,11 +16094,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16861,11 +16129,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16900,11 +16164,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16939,11 +16199,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16978,11 +16234,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +16269,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17056,11 +16304,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17095,11 +16339,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17134,11 +16374,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17173,11 +16409,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17212,11 +16444,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17251,11 +16479,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17290,11 +16514,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17329,11 +16549,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17368,11 +16584,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17407,11 +16619,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +16654,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17485,11 +16689,7 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17524,11 +16724,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17563,11 +16759,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17602,11 +16794,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17641,11 +16829,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17680,11 +16864,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17719,11 +16899,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17758,11 +16934,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17797,11 +16969,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17836,11 +17004,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +17039,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17914,11 +17074,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17953,11 +17109,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17992,11 +17144,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18031,11 +17179,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18070,11 +17214,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18109,11 +17249,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18148,11 +17284,7 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18187,11 +17319,7 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18226,11 +17354,7 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18265,11 +17389,7 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +17424,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18343,11 +17459,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18382,11 +17494,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18421,11 +17529,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18460,11 +17564,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18499,11 +17599,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18538,11 +17634,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18577,11 +17669,7 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18616,11 +17704,7 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18655,11 +17739,7 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18694,11 +17774,7 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +17809,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18772,11 +17844,7 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18811,11 +17879,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18850,11 +17914,7 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18889,11 +17949,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18928,11 +17984,7 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18967,11 +18019,7 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19006,11 +18054,7 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19045,11 +18089,7 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19084,11 +18124,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19123,11 +18159,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +18194,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19201,11 +18229,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19240,11 +18264,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19279,11 +18299,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19318,11 +18334,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19357,11 +18369,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19396,11 +18404,7 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19435,11 +18439,7 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19474,11 +18474,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19513,11 +18509,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19552,11 +18544,7 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +18579,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19630,11 +18614,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19669,11 +18649,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19708,11 +18684,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19747,11 +18719,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19786,11 +18754,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19825,11 +18789,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19864,11 +18824,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19903,11 +18859,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19942,11 +18894,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19981,11 +18929,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +18964,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20059,11 +18999,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20098,11 +19034,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20137,11 +19069,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20176,11 +19104,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20215,11 +19139,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20254,11 +19174,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20293,11 +19209,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20332,11 +19244,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20371,11 +19279,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20410,11 +19314,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20449,11 +19349,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20488,11 +19384,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20527,11 +19419,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20566,11 +19454,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20605,11 +19489,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20644,11 +19524,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20683,11 +19559,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20722,11 +19594,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20761,11 +19629,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20800,11 +19664,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20839,11 +19699,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +19734,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20917,11 +19769,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20956,11 +19804,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20995,11 +19839,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21034,11 +19874,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21073,11 +19909,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-28 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1045,7 +1045,7 @@
         <v>1877956.167100087</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1877956.167100087</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1816836.167100087</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1626706.302500087</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1670308.533100087</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1790266.276400087</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1657987.013500087</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1600712.465000087</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1641701.700400087</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1641701.700400087</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1472755.033200087</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1257746.048300087</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1433960.016700087</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1433960.016700087</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1446279.016700087</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1446279.016700087</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1544126.556600087</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1645268.114200087</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1645268.114200087</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1645278.214200087</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1623778.214200087</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1623778.214200087</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1606931.589800087</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1609909.589800087</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1643725.402363131</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1570915.368963131</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1570915.368963131</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1657820.368963131</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1687416.965863131</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1700406.285563131</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1679921.937463131</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1679921.937463131</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1641226.861963131</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1407486.246063131</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1137830.097363131</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1137830.097363131</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1139237.003463131</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1120331.413163131</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1120331.413163131</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1102600.993963131</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1175966.598772702</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1181703.907972702</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1198395.457972702</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1195489.131672702</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1193112.907172702</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>1193112.907172702</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1225212.907172702</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1225212.907172702</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1214629.191372702</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1216854.854672702</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1216854.854672702</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1185084.854672702</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1185084.854672702</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1147937.586872702</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1129170.056772702</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1129170.056772702</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1050237.724972702</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6787,14 +6787,10 @@
         <v>796945.036072702</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="J194" t="n">
-        <v>37.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
@@ -6827,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6866,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7496,7 +7480,7 @@
         <v>806087.694272702</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7529,7 +7513,7 @@
         <v>804966.753672702</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7727,7 +7711,7 @@
         <v>737986.082672702</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7760,7 +7744,7 @@
         <v>759634.116872702</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7793,7 +7777,7 @@
         <v>753008.7513727021</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7826,7 +7810,7 @@
         <v>753008.7513727021</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7859,7 +7843,7 @@
         <v>754504.2253727021</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7925,7 +7909,7 @@
         <v>754036.4089727021</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8024,7 +8008,7 @@
         <v>748225.5601727021</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8057,7 +8041,7 @@
         <v>744804.420472702</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -11093,17 +11077,11 @@
         <v>-495681.2180438782</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11132,17 +11110,11 @@
         <v>-495681.2180438782</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11208,17 +11176,11 @@
         <v>-521069.1577438782</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11251,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11288,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11325,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11358,17 +11308,11 @@
         <v>-533274.9031438782</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11397,17 +11341,11 @@
         <v>-596326.0196438782</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11436,17 +11374,11 @@
         <v>-555598.2795438782</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>38.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11475,17 +11407,11 @@
         <v>-555598.2795438782</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>38.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11514,17 +11440,11 @@
         <v>-555598.2795438782</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>38.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11557,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11590,17 +11506,11 @@
         <v>-562508.6680438782</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>38.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11629,17 +11539,11 @@
         <v>-562508.6680438782</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>38.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11668,7 +11572,7 @@
         <v>-654638.5373438782</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>38.6</v>
@@ -11676,7 +11580,7 @@
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L339" t="n">
@@ -11707,7 +11611,7 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>38.3</v>
@@ -11746,7 +11650,7 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>38.6</v>
@@ -11785,9 +11689,11 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -11859,9 +11765,11 @@
         <v>-686910.7241438782</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>38.3</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -11896,9 +11804,11 @@
         <v>-730252.3732438782</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>38.2</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -11933,9 +11843,11 @@
         <v>-765147.9123438783</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>38.1</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -11970,9 +11882,11 @@
         <v>-765147.9123438783</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>38</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -12007,9 +11921,11 @@
         <v>-765147.9123438783</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>38</v>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12044,9 +11960,11 @@
         <v>-748968.5056438782</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>38</v>
+      </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12081,9 +11999,11 @@
         <v>-756977.9004438783</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12118,9 +12038,11 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>38.5</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12451,11 +12373,9 @@
         <v>-632574.4827490065</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -12564,11 +12484,9 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12603,11 +12521,9 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12679,11 +12595,9 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12718,11 +12632,9 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12757,11 +12669,9 @@
         <v>-678838.1211490065</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12796,11 +12706,9 @@
         <v>-674742.1211490065</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>38.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12835,11 +12743,9 @@
         <v>-598637.0391490066</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -12911,11 +12817,9 @@
         <v>-600736.3399490066</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12950,11 +12854,9 @@
         <v>-600736.3399490066</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -12989,11 +12891,9 @@
         <v>-600736.3399490066</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -13065,11 +12965,9 @@
         <v>-578816.3399490066</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>38.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -13437,9 +13335,11 @@
         <v>-526720.8575490066</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13548,11 +13448,9 @@
         <v>-538689.8321490067</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13587,7 +13485,7 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>38.5</v>
@@ -13626,7 +13524,7 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>38.3</v>
@@ -13665,7 +13563,7 @@
         <v>-539571.9847490067</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>38.3</v>
@@ -13704,7 +13602,7 @@
         <v>-551777.9847490067</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>38.4</v>
@@ -13743,7 +13641,7 @@
         <v>-540777.9847490067</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>38.3</v>
@@ -13782,7 +13680,7 @@
         <v>-549580.8401490067</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>38.8</v>
@@ -13821,7 +13719,7 @@
         <v>-536571.3047490066</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>38.7</v>
@@ -13860,7 +13758,7 @@
         <v>-619132.1787849964</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>39.1</v>
@@ -13899,7 +13797,7 @@
         <v>-619122.0787849964</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>38.9</v>
@@ -13938,9 +13836,11 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>39</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13975,9 +13875,11 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>38.5</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -14012,7 +13914,7 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>38.5</v>
@@ -14051,7 +13953,7 @@
         <v>-757815.6329849964</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>38.5</v>
@@ -14090,9 +13992,11 @@
         <v>-757815.6329849964</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>38.2</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14127,7 +14031,7 @@
         <v>-757805.4329849965</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>38.2</v>
@@ -14166,7 +14070,7 @@
         <v>-757805.4329849965</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>38.5</v>
@@ -14205,9 +14109,11 @@
         <v>-787266.6456849965</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>38.5</v>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14242,9 +14148,11 @@
         <v>-785470.4690849965</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>38.2</v>
+      </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14279,9 +14187,11 @@
         <v>-828070.4690849965</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>38.4</v>
+      </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14316,9 +14226,11 @@
         <v>-825054.3299849965</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>38.1</v>
+      </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14353,9 +14265,11 @@
         <v>-825054.3299849965</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14390,9 +14304,11 @@
         <v>-840408.0939849964</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14464,9 +14380,11 @@
         <v>-866227.4656849965</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>38.1</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14501,9 +14419,11 @@
         <v>-889957.7841849965</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>38.8</v>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14538,9 +14458,11 @@
         <v>-1063002.136484996</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>38.1</v>
+      </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14575,7 +14497,7 @@
         <v>-1063002.136484996</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>37.9</v>
@@ -14614,9 +14536,11 @@
         <v>-1047273.611784996</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>37.9</v>
+      </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14651,7 +14575,7 @@
         <v>-1047273.611784996</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>38.3</v>
@@ -14690,7 +14614,7 @@
         <v>-1047701.889484996</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>38.3</v>
@@ -14729,7 +14653,7 @@
         <v>-1035358.889484996</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>37.8</v>
@@ -14768,7 +14692,7 @@
         <v>-1019945.210084996</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>38.4</v>
@@ -14807,7 +14731,7 @@
         <v>-1035220.210084996</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>38.5</v>
@@ -14846,7 +14770,7 @@
         <v>-1035220.210084996</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>38.1</v>
@@ -14885,9 +14809,11 @@
         <v>-1028917.210084996</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>38.1</v>
+      </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14922,9 +14848,11 @@
         <v>-1032917.210084996</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>38.5</v>
+      </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14959,9 +14887,11 @@
         <v>-1037830.356984996</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>38.4</v>
+      </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14996,9 +14926,11 @@
         <v>-1037223.356984996</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>38.2</v>
+      </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -15033,9 +14965,11 @@
         <v>-1039893.356984996</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>38.9</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -15070,9 +15004,11 @@
         <v>-1038162.356984996</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>38.8</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -15588,9 +15524,11 @@
         <v>-977041.5084798681</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15625,11 +15563,9 @@
         <v>-1008874.617279868</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15664,9 +15600,11 @@
         <v>-1008874.617279868</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>39</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15701,7 +15639,7 @@
         <v>-953958.5605798681</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>39</v>
@@ -15740,9 +15678,11 @@
         <v>-886625.2441798681</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15925,11 +15865,9 @@
         <v>-679692.8770798682</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15964,11 +15902,9 @@
         <v>-677904.8770798682</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -16003,11 +15939,9 @@
         <v>-692822.2930798682</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -16042,11 +15976,9 @@
         <v>-662822.2930798682</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -16081,11 +16013,9 @@
         <v>-671415.3911798681</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -16120,7 +16050,7 @@
         <v>-671415.3911798681</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>39.4</v>
@@ -16159,11 +16089,9 @@
         <v>-610779.9793798681</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16198,11 +16126,9 @@
         <v>-613948.2143798681</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16237,11 +16163,9 @@
         <v>-613948.2143798681</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16276,11 +16200,9 @@
         <v>-648108.0224798681</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16315,11 +16237,9 @@
         <v>-582233.9579798682</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16391,11 +16311,9 @@
         <v>-527407.8483798682</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16430,7 +16348,7 @@
         <v>-528120.6217798681</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>39.6</v>
@@ -16469,7 +16387,7 @@
         <v>-526340.7174798681</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>39.3</v>
@@ -16508,7 +16426,7 @@
         <v>-539405.4682798681</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>39.5</v>
@@ -16547,7 +16465,7 @@
         <v>-539405.4682798681</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>39.3</v>
@@ -16586,7 +16504,7 @@
         <v>-549520.2735798681</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>39.3</v>
@@ -16625,7 +16543,7 @@
         <v>-549020.2735798681</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>39.2</v>
@@ -16664,7 +16582,7 @@
         <v>-689020.2735798681</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>39.5</v>
@@ -16703,7 +16621,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>39.1</v>
@@ -16742,7 +16660,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>39.5</v>
@@ -16781,7 +16699,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>39.5</v>
@@ -16820,7 +16738,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>39.5</v>
@@ -16859,7 +16777,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>39.5</v>
@@ -16898,7 +16816,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>39.5</v>
@@ -16937,7 +16855,7 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>39.5</v>
@@ -16976,7 +16894,7 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>39.5</v>
@@ -17015,7 +16933,7 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>39.7</v>
@@ -17054,11 +16972,9 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -17093,9 +17009,11 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -17130,7 +17048,7 @@
         <v>-193276.5032587095</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>39.7</v>
@@ -18908,16 +18826,18 @@
         <v>-67785.33453755081</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L531" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
       <c r="M531" t="inlineStr"/>
     </row>
     <row r="532">
@@ -18947,7 +18867,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18980,7 +18904,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19013,7 +18941,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19046,7 +18978,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19079,7 +19015,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19112,7 +19052,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19145,7 +19089,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19178,7 +19126,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19211,7 +19163,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19244,7 +19200,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19277,7 +19237,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19310,7 +19274,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19343,7 +19311,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19376,7 +19348,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19409,7 +19385,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19442,7 +19422,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19475,7 +19459,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19508,7 +19496,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19541,7 +19533,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19574,7 +19570,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19607,7 +19607,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19640,7 +19644,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19673,7 +19681,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19706,7 +19718,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19739,7 +19755,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19772,7 +19792,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19805,7 +19829,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19838,7 +19866,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19871,7 +19903,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19904,7 +19940,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19937,7 +19977,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19970,7 +20014,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20003,7 +20051,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20036,7 +20088,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20069,7 +20125,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20102,7 +20162,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20135,7 +20199,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20168,7 +20236,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20201,7 +20273,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20234,7 +20310,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20267,7 +20347,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20300,7 +20384,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20333,7 +20421,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20366,7 +20458,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20399,7 +20495,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20432,7 +20532,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20465,7 +20569,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20498,7 +20606,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20531,7 +20643,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20564,7 +20680,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20597,7 +20717,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20630,7 +20754,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20663,7 +20791,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20696,7 +20828,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20729,7 +20865,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20762,7 +20902,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20795,7 +20939,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20828,7 +20976,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20861,7 +21013,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20894,7 +21050,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20927,7 +21087,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20960,7 +21124,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20993,7 +21161,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21026,7 +21198,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21059,7 +21235,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21092,7 +21272,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21125,7 +21309,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21158,7 +21346,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21191,7 +21383,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21224,7 +21420,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21257,7 +21457,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21290,7 +21494,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21323,7 +21531,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21356,7 +21568,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21389,7 +21605,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21422,7 +21642,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21455,7 +21679,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21488,7 +21716,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21517,11 +21749,17 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21550,11 +21788,17 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21583,11 +21827,17 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21616,11 +21866,17 @@
         <v>-679902.2248186647</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21649,11 +21905,17 @@
         <v>-681568.6011186647</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21682,11 +21944,17 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21715,11 +21983,17 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21752,7 +22026,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21781,11 +22059,17 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21814,11 +22098,17 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21847,11 +22137,17 @@
         <v>-678736.6280496648</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21880,11 +22176,17 @@
         <v>-679497.3416496648</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>40</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21913,17 +22215,23 @@
         <v>-679497.3416496648</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
       <c r="M622" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-28 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>1293519.829649602</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1293994.829649602</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1393249.138749602</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1481242.864349602</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1580938.940749601</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1877946.167100087</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1877946.167100087</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1670308.533100087</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1657987.013500087</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1600712.465000087</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1641701.700400087</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1472755.033200087</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1257746.048300087</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1433960.016700087</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1433960.016700087</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1446279.016700087</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1446279.016700087</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1544126.556600087</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1645268.114200087</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1645268.114200087</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1645278.214200087</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1623778.214200087</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1623778.214200087</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1606931.589800087</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1609909.589800087</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1643725.402363131</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1570915.368963131</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1570915.368963131</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1657820.368963131</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1687416.965863131</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1700406.285563131</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1679921.937463131</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1679921.937463131</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1137830.097363131</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1137830.097363131</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1139237.003463131</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1120331.413163131</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1120331.413163131</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1102600.993963131</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>769809.2016727021</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>796759.1275727021</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>793261.3697727021</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>770873.6475727021</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>770873.6475727021</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>711542.1131727021</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>701633.8911727022</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>689661.7517727022</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -11572,17 +11572,11 @@
         <v>-654638.5373438782</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>38.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11611,17 +11605,11 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>38.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11650,17 +11638,11 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>38.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11689,17 +11671,11 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>38.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11732,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11765,17 +11737,11 @@
         <v>-686910.7241438782</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>38.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11804,17 +11770,11 @@
         <v>-730252.3732438782</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>38.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11843,17 +11803,11 @@
         <v>-765147.9123438783</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>38.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11890,7 +11844,7 @@
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -12077,9 +12031,11 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12114,9 +12070,11 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12151,9 +12109,11 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -12188,9 +12148,11 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -12225,9 +12187,11 @@
         <v>-715614.9004438783</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -12632,9 +12596,11 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12669,9 +12635,11 @@
         <v>-678838.1211490065</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12706,9 +12674,11 @@
         <v>-674742.1211490065</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13335,11 +13305,9 @@
         <v>-526720.8575490066</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13485,11 +13453,9 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>38.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13524,11 +13490,9 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>38.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13563,11 +13527,9 @@
         <v>-539571.9847490067</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>38.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13602,11 +13564,9 @@
         <v>-551777.9847490067</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>38.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13680,11 +13640,9 @@
         <v>-549580.8401490067</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>38.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13719,11 +13677,9 @@
         <v>-536571.3047490066</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13758,11 +13714,9 @@
         <v>-619132.1787849964</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13797,11 +13751,9 @@
         <v>-619122.0787849964</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>38.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13836,11 +13788,9 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13875,11 +13825,9 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>38.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13914,11 +13862,9 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>38.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -14187,11 +14133,9 @@
         <v>-828070.4690849965</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>38.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14304,11 +14248,9 @@
         <v>-840408.0939849964</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>38.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14419,11 +14361,9 @@
         <v>-889957.7841849965</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>38.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14458,11 +14398,9 @@
         <v>-1063002.136484996</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>38.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14965,11 +14903,9 @@
         <v>-1039893.356984996</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>38.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -15004,11 +14940,9 @@
         <v>-1038162.356984996</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>38.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -15524,11 +15458,9 @@
         <v>-977041.5084798681</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15600,11 +15532,9 @@
         <v>-1008874.617279868</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15639,11 +15569,9 @@
         <v>-953958.5605798681</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15678,11 +15606,9 @@
         <v>-886625.2441798681</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -16050,11 +15976,9 @@
         <v>-671415.3911798681</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16348,11 +16272,9 @@
         <v>-528120.6217798681</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16387,11 +16309,9 @@
         <v>-526340.7174798681</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16426,11 +16346,9 @@
         <v>-539405.4682798681</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16465,11 +16383,9 @@
         <v>-539405.4682798681</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16504,11 +16420,9 @@
         <v>-549520.2735798681</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16543,11 +16457,9 @@
         <v>-549020.2735798681</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16582,11 +16494,9 @@
         <v>-689020.2735798681</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16621,11 +16531,9 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16660,11 +16568,9 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16699,11 +16605,9 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16738,11 +16642,9 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16777,11 +16679,9 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16816,11 +16716,9 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16855,11 +16753,9 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16894,11 +16790,9 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16933,11 +16827,9 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -17009,11 +16901,9 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -17048,11 +16938,9 @@
         <v>-193276.5032587095</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -21749,11 +21637,9 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21788,11 +21674,9 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21827,11 +21711,9 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21866,11 +21748,9 @@
         <v>-679902.2248186647</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21905,11 +21785,9 @@
         <v>-681568.6011186647</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21944,11 +21822,9 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21983,11 +21859,9 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -22059,11 +21933,9 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -22098,11 +21970,9 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -22137,11 +22007,9 @@
         <v>-678736.6280496648</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -22176,11 +22044,9 @@
         <v>-679497.3416496648</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -22215,11 +22081,9 @@
         <v>-679497.3416496648</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -22232,6 +22096,6 @@
       <c r="M622" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-28 BackTest LAMB.xlsx
@@ -550,7 +550,7 @@
         <v>1293519.829649602</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1293994.829649602</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1393249.138749602</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1481242.864349602</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1580938.940749601</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2102483.846949602</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2034718.301149602</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2007670.420049602</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1994109.083649602</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1718501.659200087</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1757700.047100087</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1877946.167100087</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1877956.167100087</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1877956.167100087</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1816836.167100087</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1626706.302500087</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1645663.284500087</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1790266.276400087</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1803452.007700088</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1657987.013500087</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1668812.465000087</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1600712.465000087</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1641701.700400087</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1558767.521400087</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1512445.114300087</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1472755.033200087</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1257746.048300087</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1257746.048300087</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>769809.2016727021</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>796759.1275727021</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>793261.3697727021</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>770873.6475727021</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>770873.6475727021</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>711542.1131727021</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>701633.8911727022</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>689661.7517727022</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -11341,11 +11341,17 @@
         <v>-596326.0196438782</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +11380,17 @@
         <v>-555598.2795438782</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>38.5</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11423,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11460,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11497,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11534,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11571,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11604,17 @@
         <v>-654638.5373438782</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11643,17 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>38.3</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11682,17 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11721,17 @@
         <v>-654628.5373438782</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11764,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +11797,17 @@
         <v>-686910.7241438782</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>38.3</v>
+      </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11836,17 @@
         <v>-730252.3732438782</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>38.2</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +11875,17 @@
         <v>-765147.9123438783</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>38.1</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11844,7 +11922,7 @@
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -11992,11 +12070,9 @@
         <v>-755614.9004438783</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>38.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12226,9 +12302,11 @@
         <v>-636361.7866438782</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>38.9</v>
+      </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
@@ -12337,9 +12415,11 @@
         <v>-632574.4827490065</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -12374,9 +12454,11 @@
         <v>-670141.0497490065</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>39</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12411,9 +12493,11 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>38.8</v>
+      </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -12448,9 +12532,11 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12485,9 +12571,11 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12522,9 +12610,11 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12559,9 +12649,11 @@
         <v>-674027.4127490065</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12713,9 +12805,11 @@
         <v>-598637.0391490066</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -12750,9 +12844,11 @@
         <v>-597018.3912490066</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>39</v>
+      </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -12787,9 +12883,11 @@
         <v>-600736.3399490066</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12824,9 +12922,11 @@
         <v>-600736.3399490066</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>39</v>
+      </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -12861,9 +12961,11 @@
         <v>-600736.3399490066</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>39</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -12898,9 +13000,11 @@
         <v>-601416.3399490066</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>39</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -12935,9 +13039,11 @@
         <v>-578816.3399490066</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>38.8</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -12972,9 +13078,11 @@
         <v>-556616.3399490066</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -13009,9 +13117,11 @@
         <v>-556616.3399490066</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13046,9 +13156,11 @@
         <v>-563709.7208490066</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13083,9 +13195,11 @@
         <v>-563709.7208490066</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13120,9 +13234,11 @@
         <v>-588403.1156490066</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13157,9 +13273,11 @@
         <v>-573403.1156490066</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>38.9</v>
+      </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -13194,9 +13312,11 @@
         <v>-573403.1156490066</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13231,9 +13351,11 @@
         <v>-573403.1156490066</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13268,9 +13390,11 @@
         <v>-581869.0954490065</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13305,9 +13429,11 @@
         <v>-526720.8575490066</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13342,9 +13468,11 @@
         <v>-527293.8575490066</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13379,9 +13507,11 @@
         <v>-480989.8321490066</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>39</v>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13416,9 +13546,11 @@
         <v>-538689.8321490067</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13453,9 +13585,11 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>38.5</v>
+      </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13490,9 +13624,11 @@
         <v>-540689.8321490067</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>38.3</v>
+      </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13527,9 +13663,11 @@
         <v>-539571.9847490067</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>38.3</v>
+      </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13564,9 +13702,11 @@
         <v>-551777.9847490067</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>38.4</v>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13640,9 +13780,11 @@
         <v>-549580.8401490067</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>38.8</v>
+      </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13677,9 +13819,11 @@
         <v>-536571.3047490066</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13714,9 +13858,11 @@
         <v>-619132.1787849964</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13751,9 +13897,11 @@
         <v>-619122.0787849964</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>38.9</v>
+      </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13788,9 +13936,11 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>39</v>
+      </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13825,9 +13975,11 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>38.5</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13862,9 +14014,11 @@
         <v>-675461.1610849964</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>38.5</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -14133,9 +14287,11 @@
         <v>-828070.4690849965</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>38.4</v>
+      </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14248,9 +14404,11 @@
         <v>-840408.0939849964</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>38.6</v>
+      </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14285,9 +14443,11 @@
         <v>-866237.4656849965</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>38.2</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14361,9 +14521,11 @@
         <v>-889957.7841849965</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>38.8</v>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14398,9 +14560,11 @@
         <v>-1063002.136484996</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>38.1</v>
+      </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14903,9 +15067,11 @@
         <v>-1039893.356984996</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>38.9</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -14940,9 +15106,11 @@
         <v>-1038162.356984996</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>38.8</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -14977,9 +15145,11 @@
         <v>-1044682.069784996</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>39</v>
+      </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -15014,9 +15184,11 @@
         <v>-1042563.941579868</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>38.8</v>
+      </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -15051,9 +15223,11 @@
         <v>-1042563.941579868</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>39</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15088,9 +15262,11 @@
         <v>-1010813.203779868</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>39</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15125,9 +15301,11 @@
         <v>-1010813.203779868</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15162,9 +15340,11 @@
         <v>-1010813.203779868</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15199,9 +15379,11 @@
         <v>-1162936.509679868</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15236,9 +15418,11 @@
         <v>-1162926.399679868</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15273,9 +15457,11 @@
         <v>-1037266.200879868</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15310,9 +15496,11 @@
         <v>-1050266.200879868</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15347,9 +15535,11 @@
         <v>-959046.2008798681</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15384,9 +15574,11 @@
         <v>-987050.5084798681</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15421,9 +15613,11 @@
         <v>-987050.5084798681</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15458,9 +15652,11 @@
         <v>-977041.5084798681</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15495,9 +15691,11 @@
         <v>-1008874.617279868</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15532,9 +15730,11 @@
         <v>-1008874.617279868</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>39</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15569,9 +15769,11 @@
         <v>-953958.5605798681</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>39</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15606,9 +15808,11 @@
         <v>-886625.2441798681</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15643,9 +15847,11 @@
         <v>-804760.2441798681</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15680,9 +15886,11 @@
         <v>-804760.2441798681</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15717,9 +15925,11 @@
         <v>-804971.2441798681</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15754,9 +15964,11 @@
         <v>-675238.9594798682</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15791,9 +16003,11 @@
         <v>-679692.8770798682</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15828,9 +16042,11 @@
         <v>-677904.8770798682</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15865,9 +16081,11 @@
         <v>-692822.2930798682</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15902,9 +16120,11 @@
         <v>-662822.2930798682</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15939,9 +16159,11 @@
         <v>-671415.3911798681</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15976,9 +16198,11 @@
         <v>-671415.3911798681</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16013,9 +16237,11 @@
         <v>-610779.9793798681</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16050,9 +16276,11 @@
         <v>-613948.2143798681</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16087,9 +16315,11 @@
         <v>-613948.2143798681</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16124,9 +16354,11 @@
         <v>-648108.0224798681</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16161,9 +16393,11 @@
         <v>-582233.9579798682</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16198,9 +16432,11 @@
         <v>-635799.1412798682</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16235,9 +16471,11 @@
         <v>-527407.8483798682</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16272,9 +16510,11 @@
         <v>-528120.6217798681</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16309,9 +16549,11 @@
         <v>-526340.7174798681</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16346,9 +16588,11 @@
         <v>-539405.4682798681</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16383,9 +16627,11 @@
         <v>-539405.4682798681</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16420,9 +16666,11 @@
         <v>-549520.2735798681</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16457,9 +16705,11 @@
         <v>-549020.2735798681</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16494,9 +16744,11 @@
         <v>-689020.2735798681</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16531,9 +16783,11 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16568,9 +16822,11 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16605,9 +16861,11 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16642,9 +16900,11 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16679,9 +16939,11 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16716,9 +16978,11 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16753,9 +17017,11 @@
         <v>-685231.9533798682</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16790,9 +17056,11 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16827,9 +17095,11 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16864,9 +17134,11 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16901,9 +17173,11 @@
         <v>-533738.9533798682</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16938,9 +17212,11 @@
         <v>-193276.5032587095</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -21674,9 +21950,11 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21711,9 +21989,11 @@
         <v>-686205.6262186647</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21748,9 +22028,11 @@
         <v>-679902.2248186647</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21785,9 +22067,11 @@
         <v>-681568.6011186647</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21822,9 +22106,11 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21859,9 +22145,11 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21896,9 +22184,11 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -21933,9 +22223,11 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21970,9 +22262,11 @@
         <v>-679951.2239186647</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -22007,9 +22301,11 @@
         <v>-678736.6280496648</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -22044,9 +22340,11 @@
         <v>-679497.3416496648</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>40</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -22081,9 +22379,11 @@
         <v>-679497.3416496648</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
